--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value317.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value317.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.775265571459932</v>
+        <v>0.767663300037384</v>
       </c>
       <c r="B1">
-        <v>1.039109014504233</v>
+        <v>1.264716863632202</v>
       </c>
       <c r="C1">
-        <v>1.672822731503305</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.417378155729065</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.891996643240643</v>
+        <v>1.650103807449341</v>
       </c>
     </row>
   </sheetData>
